--- a/Transfer_vehicle_DB23.xlsx
+++ b/Transfer_vehicle_DB23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E4376-863B-4210-96E4-EE16D3530775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3572F063-9809-490D-977E-9B6FDDE58B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="770" activeTab="1" xr2:uid="{EAA8122F-796E-42AA-B602-9BE6D85E3BA4}"/>
   </bookViews>
@@ -931,18 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,6 +944,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -27791,8 +27791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304DD466-033E-47B5-BE91-F9755818BF21}">
   <dimension ref="A1:U527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U82" sqref="U82"/>
+    <sheetView tabSelected="1" topLeftCell="I74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V90" sqref="V90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28966,22 +28966,22 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75" t="s">
+      <c r="E48" s="71"/>
+      <c r="F48" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75" t="s">
+      <c r="G48" s="71"/>
+      <c r="H48" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75" t="s">
+      <c r="I48" s="71"/>
+      <c r="J48" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="75"/>
+      <c r="K48" s="71"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="16" t="s">
@@ -29046,10 +29046,10 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="75"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="16" t="s">
         <v>72</v>
       </c>
@@ -48614,19 +48614,19 @@
   <sheetData>
     <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="48" t="s">
@@ -48816,22 +48816,22 @@
     </row>
     <row r="12" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="77" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77" t="s">
+      <c r="I13" s="75"/>
+      <c r="J13" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="78"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D14" s="38" t="s">
@@ -67531,22 +67531,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="F5" s="71" t="s">
+      <c r="D5" s="79"/>
+      <c r="F5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="I5" s="71" t="s">
+      <c r="G5" s="79"/>
+      <c r="I5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="L5" s="71" t="s">
+      <c r="J5" s="79"/>
+      <c r="L5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -67619,11 +67619,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="73">
+      <c r="C9" s="76">
         <f>SQRT(D8*((2/D7)-(1/D6)))</f>
         <v>1.9186316480773129</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="77"/>
       <c r="F9" s="6" t="s">
         <v>0</v>
       </c>
@@ -67641,11 +67641,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="73">
+      <c r="F10" s="76">
         <f>($G$6-$G$7*EXP((G8)/($G$9*9.81)))/(EXP((G8)/($G$9*9.81)))</f>
         <v>69988.034237650369</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="77"/>
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
@@ -67663,10 +67663,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="79"/>
       <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
@@ -67682,15 +67682,15 @@
       <c r="D13" s="5">
         <v>3558</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="I13" s="71">
+      <c r="G13" s="79"/>
+      <c r="I13" s="78">
         <f>J12+J11</f>
         <v>5.6429999999999998</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
@@ -67707,11 +67707,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="71">
+      <c r="C15" s="78">
         <f>(D13+D14)/2</f>
         <v>3558</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="79"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -67726,10 +67726,10 @@
       <c r="G16" s="2">
         <v>1280</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
@@ -67746,15 +67746,15 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="F18" s="73">
+      <c r="D18" s="79"/>
+      <c r="F18" s="76">
         <f>EXP(G16/(G17*9.81))*(G14+G15) - (G14+G15)</f>
         <v>17465.040076315519</v>
       </c>
-      <c r="G18" s="74"/>
+      <c r="G18" s="77"/>
       <c r="I18" s="1" t="s">
         <v>99</v>
       </c>
@@ -67793,16 +67793,16 @@
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="73">
+      <c r="C21" s="76">
         <f>2*PI()*SQRT(D19^3/D20)/60/60/24</f>
         <v>2.44459204577962E-2</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="I21" s="73">
+      <c r="D21" s="77"/>
+      <c r="I21" s="76">
         <f>(J17-J18)/((J19)/(J20))+J18</f>
         <v>1849.3733062330625</v>
       </c>
-      <c r="J21" s="74"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -67816,13 +67816,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="C5:D5"/>
@@ -67831,6 +67824,13 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Transfer_vehicle_DB23.xlsx
+++ b/Transfer_vehicle_DB23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3572F063-9809-490D-977E-9B6FDDE58B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1471E-A44B-4B09-B846-6AD815B09FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="770" activeTab="1" xr2:uid="{EAA8122F-796E-42AA-B602-9BE6D85E3BA4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="770" activeTab="1" xr2:uid="{EAA8122F-796E-42AA-B602-9BE6D85E3BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="TV database" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="orbital mechanics calculator" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -946,16 +947,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -67531,22 +67532,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="F5" s="78" t="s">
+      <c r="D5" s="77"/>
+      <c r="F5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="I5" s="78" t="s">
+      <c r="G5" s="77"/>
+      <c r="I5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="L5" s="78" t="s">
+      <c r="J5" s="77"/>
+      <c r="L5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="79"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -67619,11 +67620,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="76">
+      <c r="C9" s="78">
         <f>SQRT(D8*((2/D7)-(1/D6)))</f>
         <v>1.9186316480773129</v>
       </c>
-      <c r="D9" s="77"/>
+      <c r="D9" s="79"/>
       <c r="F9" s="6" t="s">
         <v>0</v>
       </c>
@@ -67641,11 +67642,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="76">
+      <c r="F10" s="78">
         <f>($G$6-$G$7*EXP((G8)/($G$9*9.81)))/(EXP((G8)/($G$9*9.81)))</f>
         <v>69988.034237650369</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
@@ -67663,10 +67664,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="77"/>
       <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
@@ -67682,15 +67683,15 @@
       <c r="D13" s="5">
         <v>3558</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="I13" s="78">
+      <c r="G13" s="77"/>
+      <c r="I13" s="76">
         <f>J12+J11</f>
         <v>5.6429999999999998</v>
       </c>
-      <c r="J13" s="79"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
@@ -67707,11 +67708,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="78">
+      <c r="C15" s="76">
         <f>(D13+D14)/2</f>
         <v>3558</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="77"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -67726,10 +67727,10 @@
       <c r="G16" s="2">
         <v>1280</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="79"/>
+      <c r="J16" s="77"/>
     </row>
     <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
@@ -67746,15 +67747,15 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="F18" s="76">
+      <c r="D18" s="77"/>
+      <c r="F18" s="78">
         <f>EXP(G16/(G17*9.81))*(G14+G15) - (G14+G15)</f>
         <v>17465.040076315519</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="79"/>
       <c r="I18" s="1" t="s">
         <v>99</v>
       </c>
@@ -67793,16 +67794,16 @@
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="76">
+      <c r="C21" s="78">
         <f>2*PI()*SQRT(D19^3/D20)/60/60/24</f>
         <v>2.44459204577962E-2</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="I21" s="76">
+      <c r="D21" s="79"/>
+      <c r="I21" s="78">
         <f>(J17-J18)/((J19)/(J20))+J18</f>
         <v>1849.3733062330625</v>
       </c>
-      <c r="J21" s="77"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -67816,6 +67817,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="C5:D5"/>
@@ -67824,13 +67832,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
